--- a/app/data/absenteeism_data_11.xlsx
+++ b/app/data/absenteeism_data_11.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35181</v>
+        <v>83805</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cecília da Rosa</t>
+          <t>Helena Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>5161.13</v>
+        <v>9870.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86889</v>
+        <v>54682</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yasmin da Rosa</t>
+          <t>Ana Sophia Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,245 +523,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>12172.67</v>
+        <v>7760.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72007</v>
+        <v>50402</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Agatha Pires</t>
+          <t>Igor Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>10881.65</v>
+        <v>7367.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38559</v>
+        <v>53351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lara Aragão</t>
+          <t>Vitor da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>10170.67</v>
+        <v>8413.370000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79694</v>
+        <v>31054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Moreira</t>
+          <t>Manuela Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>4869.89</v>
+        <v>7515.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59375</v>
+        <v>55771</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia Silva</t>
+          <t>Luiz Felipe da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>9310.549999999999</v>
+        <v>7417.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76527</v>
+        <v>17830</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Paulo Nogueira</t>
+          <t>Sr. Nathan Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>10766.01</v>
+        <v>9775.389999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80532</v>
+        <v>79166</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alexandre Nunes</t>
+          <t>Ana Sophia Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>10264.75</v>
+        <v>9690.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31070</v>
+        <v>33916</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Cardoso</t>
+          <t>Benício Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8154.37</v>
+        <v>6764.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74831</v>
+        <v>33406</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Lívia da Mota</t>
+          <t>Vitor Hugo Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>9666.389999999999</v>
+        <v>7849.65</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_11.xlsx
+++ b/app/data/absenteeism_data_11.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54674</v>
+        <v>33287</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augusto Campos</t>
+          <t>Enzo Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>7850.36</v>
+        <v>8468.629999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38263</v>
+        <v>77680</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas Costa</t>
+          <t>Clara Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>10730.71</v>
+        <v>12354.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74554</v>
+        <v>41530</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yasmin Martins</t>
+          <t>Dra. Maria Cecília Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>7589.78</v>
+        <v>7036.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5416</v>
+        <v>56335</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mariana Vieira</t>
+          <t>Calebe Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>10799.86</v>
+        <v>3096.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79556</v>
+        <v>69151</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carolina Ferreira</t>
+          <t>Ana Carolina Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>4728.75</v>
+        <v>7342.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>49872</v>
+        <v>16712</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Otávio Gonçalves</t>
+          <t>Sr. Luiz Gustavo Martins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>9874.98</v>
+        <v>8267.639999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49941</v>
+        <v>56670</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Matheus Melo</t>
+          <t>Juliana Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>8862.41</v>
+        <v>9244.780000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32288</v>
+        <v>54422</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Eloah Campos</t>
+          <t>Ana Luiza Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>6167.02</v>
+        <v>3093.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30941</v>
+        <v>72608</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sophie Sales</t>
+          <t>Rebeca Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>11134.49</v>
+        <v>8453.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>41077</v>
+        <v>57842</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gustavo Cavalcanti</t>
+          <t>Emilly da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>6458.5</v>
+        <v>10403.13</v>
       </c>
     </row>
   </sheetData>
